--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_LSPM_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_LSPM_Lineal_Estacionario_ARMA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>N_Calib_1</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Sí</t>
   </si>
 </sst>
 </file>
@@ -441,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-1.662429017694924</v>
+        <v>-1.492263261150804</v>
       </c>
       <c r="D2">
-        <v>0.09661344017211104</v>
+        <v>0.1498323900386123</v>
       </c>
       <c r="E2">
         <v>0.7463368675940769</v>
@@ -467,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-1.081040007898904</v>
+        <v>-1.012113203770835</v>
       </c>
       <c r="D3">
-        <v>0.2798345646878888</v>
+        <v>0.3224866192301192</v>
       </c>
       <c r="E3">
         <v>0.7463368675940769</v>
@@ -493,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-0.9558946560441707</v>
+        <v>-1.128493902291183</v>
       </c>
       <c r="D4">
-        <v>0.3392630670894468</v>
+        <v>0.2712677721884975</v>
       </c>
       <c r="E4">
         <v>0.7463368675940769</v>
@@ -519,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>0.4539306323949516</v>
+        <v>0.4398030073783262</v>
       </c>
       <c r="D5">
-        <v>0.6499374232406638</v>
+        <v>0.6643700268620152</v>
       </c>
       <c r="E5">
         <v>0.7463368675940769</v>
@@ -545,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.5283124801439916</v>
+        <v>0.4664445781751394</v>
       </c>
       <c r="D6">
-        <v>0.5973522908953361</v>
+        <v>0.6454831198702604</v>
       </c>
       <c r="E6">
         <v>0.7945796148366577</v>
@@ -571,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>0.4844655202446861</v>
+        <v>0.6114228285851228</v>
       </c>
       <c r="D7">
-        <v>0.6281187190907092</v>
+        <v>0.5471863621953934</v>
       </c>
       <c r="E7">
         <v>0.7945796148366577</v>
@@ -597,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>2.082024813734961</v>
+        <v>2.009581712069077</v>
       </c>
       <c r="D8">
-        <v>0.03749132174082082</v>
+        <v>0.05689811950938362</v>
       </c>
       <c r="E8">
         <v>0.7945796148366577</v>
@@ -609,7 +606,7 @@
         <v>0.7325737118421308</v>
       </c>
       <c r="G8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H8">
         <v>200</v>
@@ -623,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-0.007498671825626897</v>
+        <v>-0.008765107634912886</v>
       </c>
       <c r="D9">
-        <v>0.9940178724222009</v>
+        <v>0.9930855437655497</v>
       </c>
       <c r="E9">
         <v>0.7774915988047874</v>
@@ -649,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>1.501321302423173</v>
+        <v>1.29444821412549</v>
       </c>
       <c r="D10">
-        <v>0.1334605056478813</v>
+        <v>0.2089334315494413</v>
       </c>
       <c r="E10">
         <v>0.7774915988047874</v>
@@ -675,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>1.390118800684031</v>
+        <v>1.357457401657593</v>
       </c>
       <c r="D11">
-        <v>0.1646770621385905</v>
+        <v>0.1883988861429227</v>
       </c>
       <c r="E11">
         <v>0.7777387581713427</v>
